--- a/EARCT-rsch2-beta.xlsx
+++ b/EARCT-rsch2-beta.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="0" windowWidth="20925" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="13500" yWindow="0" windowWidth="20925" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="40" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12804" uniqueCount="1978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12812" uniqueCount="1980">
   <si>
     <t>分類1</t>
     <rPh sb="0" eb="2">
@@ -6226,13 +6226,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>用言</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウゲン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>活用</t>
     <rPh sb="0" eb="2">
       <t>カツヨウ</t>
@@ -6697,13 +6690,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>行為</t>
-    <rPh sb="0" eb="2">
-      <t>コウイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>動詞型-サ変</t>
     <rPh sb="0" eb="2">
       <t>ドウシ</t>
@@ -6894,6 +6880,43 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>用言</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウゲン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メモ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>母音語幹動詞</t>
+    <rPh sb="0" eb="2">
+      <t>ボイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>子音語幹動詞</t>
+    <rPh sb="0" eb="2">
+      <t>シイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウシ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -7127,7 +7150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7172,6 +7195,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -62096,482 +62121,1488 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="N16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="4.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="25" t="s">
-        <v>1861</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:6">
+    <row r="1" spans="1:20">
+      <c r="A1" s="26" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>1929</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>1907</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>1908</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>1910</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>1909</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>1911</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>1912</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>1913</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>1914</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>1916</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>1915</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="26"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="L2" s="29" t="s">
+        <v>1938</v>
+      </c>
+      <c r="T2" s="26"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="B3" s="28" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="C4" s="27" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="C5" s="27" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="C6" s="27" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>1901</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>1917</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>1975</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>1901</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>1917</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>1902</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>1917</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>1902</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>1917</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>1903</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>1917</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>1904</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>1918</v>
+      </c>
+      <c r="T6" s="27"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="C7" s="27" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>1919</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="C8" s="27" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="C9" s="27" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="C10" s="27" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="C11" s="27" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="C12" s="27" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="C13" s="27" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="C14" s="27" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="C15" s="27" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>1958</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>1960</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>1961</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>1961</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>1963</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="R15" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="S15" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="T15" s="27"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="C16" s="27" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>1960</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>1962</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>1962</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>1964</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="R16" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="S16" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="T16" s="27"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="C17" s="27" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+    </row>
+    <row r="18" spans="2:20">
+      <c r="C18" s="27" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="C19" s="27" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="C20" s="27" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27" t="s">
+        <v>1880</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="C21" s="27" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>1951</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>1952</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>1955</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>1953</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>1953</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>1954</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>1952</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>1955</v>
+      </c>
+      <c r="T21" s="27"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="C22" s="27" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>1965</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>1966</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>1962</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>1967</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>1968</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="R22" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="S22" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="T22" s="27"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="C23" s="28" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>1882</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>1917</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>1934</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>1917</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>1898</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>1917</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>1899</v>
+      </c>
+      <c r="O23" s="28" t="s">
+        <v>1917</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>1900</v>
+      </c>
+      <c r="Q23" s="28" t="s">
+        <v>1917</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>1900</v>
+      </c>
+      <c r="S23" s="28" t="s">
+        <v>1917</v>
+      </c>
+      <c r="T23" s="28"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="28" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="C25" s="27" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="C26" s="27" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="C27" s="27" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>1931</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>1932</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>1933</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>1931</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>1935</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>1935</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>1936</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>1934</v>
+      </c>
+      <c r="R27" s="27" t="s">
+        <v>1937</v>
+      </c>
+      <c r="S27" s="27" t="s">
+        <v>1918</v>
+      </c>
+      <c r="T27" s="27"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="C28" s="27" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="C29" s="27" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>1939</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="C30" s="27" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="C31" s="27" t="s">
+        <v>606</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="C32" s="27" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20">
+      <c r="C33" s="28" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="27" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20">
+      <c r="C34" s="28" t="s">
+        <v>1888</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="27" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20">
+      <c r="C35" s="28" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="27"/>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="C36" s="28" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="27"/>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="28" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+    </row>
+    <row r="38" spans="2:20">
+      <c r="C38" s="27" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="27"/>
+    </row>
+    <row r="39" spans="2:20">
+      <c r="C39" s="27" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+    </row>
+    <row r="40" spans="2:20">
+      <c r="C40" s="27" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+    </row>
+    <row r="41" spans="2:20">
+      <c r="C41" s="27" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+    </row>
+    <row r="42" spans="2:20">
+      <c r="C42" s="27" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="27"/>
+    </row>
+    <row r="43" spans="2:20">
+      <c r="C43" s="27" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+    </row>
+    <row r="44" spans="2:20">
+      <c r="C44" s="27" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+    </row>
+    <row r="45" spans="2:20">
+      <c r="C45" s="27" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+    </row>
+    <row r="46" spans="2:20">
+      <c r="C46" s="27" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="27"/>
+    </row>
+    <row r="47" spans="2:20">
+      <c r="C47" s="28" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+    </row>
+    <row r="48" spans="2:20">
+      <c r="B48" s="28" t="s">
         <v>1864</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="C3" s="25" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="F4" s="27" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="F5" s="27" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="F6" s="27" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="F7" s="27" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="F8" s="27" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="F9" s="27" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="F10" s="27" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="F11" s="27" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="F12" s="27" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="F13" s="25" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="C14" s="25" t="s">
-        <v>1846</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="F15" s="27" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="F16" s="27" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="F17" s="27" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="F18" s="27" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="F19" s="27" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="F20" s="27" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="F21" s="27" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="F22" s="27" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="F23" s="27" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="F24" s="27" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="F25" s="27" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="F26" s="27" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="F27" s="27" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6">
-      <c r="F28" s="27" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6">
-      <c r="F29" s="27" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6">
-      <c r="C30" s="25" t="s">
-        <v>1892</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="3:6">
-      <c r="F31" s="27" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6">
-      <c r="F32" s="27" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="F33" s="27" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="F34" s="27" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="F35" s="27" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="F36" s="27" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="F37" s="27" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="F38" s="25" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="C39" s="25" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="F40" s="27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="F41" s="27" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="25" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26" t="s">
-        <v>1868</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>1863</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>1906</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>1907</v>
-      </c>
-      <c r="I44" s="24" t="s">
-        <v>1930</v>
-      </c>
-      <c r="J44" s="24" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K44" s="24" t="s">
-        <v>1909</v>
-      </c>
-      <c r="L44" s="24" t="s">
-        <v>1911</v>
-      </c>
-      <c r="M44" s="24" t="s">
-        <v>1910</v>
-      </c>
-      <c r="N44" s="24" t="s">
-        <v>1912</v>
-      </c>
-      <c r="O44" s="24" t="s">
-        <v>1913</v>
-      </c>
-      <c r="P44" s="24" t="s">
-        <v>1914</v>
-      </c>
-      <c r="Q44" s="24" t="s">
-        <v>1915</v>
-      </c>
-      <c r="R44" s="24" t="s">
-        <v>1917</v>
-      </c>
-      <c r="S44" s="24" t="s">
-        <v>1916</v>
-      </c>
-      <c r="T44" s="26"/>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26" t="s">
-        <v>1921</v>
-      </c>
-      <c r="E45" s="26"/>
-      <c r="L45" s="29" t="s">
-        <v>1940</v>
-      </c>
-      <c r="T45" s="26"/>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="B46" s="28" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="C47" s="27" t="s">
-        <v>1830</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>1922</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>1869</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>1873</v>
-      </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="C48" s="27" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>1923</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>1869</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>1873</v>
-      </c>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-    </row>
-    <row r="49" spans="3:20">
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="C49" s="27" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>1924</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>1870</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>1873</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>1902</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>1918</v>
-      </c>
-      <c r="I49" s="27" t="s">
-        <v>1977</v>
-      </c>
-      <c r="J49" s="27" t="s">
-        <v>1902</v>
-      </c>
-      <c r="K49" s="27" t="s">
-        <v>1918</v>
-      </c>
-      <c r="L49" s="27" t="s">
-        <v>1903</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>1918</v>
-      </c>
-      <c r="N49" s="27" t="s">
-        <v>1903</v>
-      </c>
-      <c r="O49" s="27" t="s">
-        <v>1918</v>
-      </c>
-      <c r="P49" s="27" t="s">
-        <v>1904</v>
-      </c>
-      <c r="Q49" s="27" t="s">
-        <v>1918</v>
-      </c>
-      <c r="R49" s="27" t="s">
-        <v>1905</v>
-      </c>
-      <c r="S49" s="27" t="s">
-        <v>1919</v>
-      </c>
+        <v>1813</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
       <c r="T49" s="27"/>
     </row>
-    <row r="50" spans="3:20">
+    <row r="50" spans="1:20">
       <c r="C50" s="27" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>1925</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>1870</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>1873</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>1920</v>
-      </c>
+        <v>1865</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
       <c r="J50" s="27"/>
@@ -62586,17 +63617,13 @@
       <c r="S50" s="27"/>
       <c r="T50" s="27"/>
     </row>
-    <row r="51" spans="3:20">
-      <c r="C51" s="27" t="s">
-        <v>1842</v>
-      </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27" t="s">
-        <v>1888</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>1872</v>
-      </c>
+    <row r="51" spans="1:20">
+      <c r="C51" s="28" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="27"/>
       <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
@@ -62612,17 +63639,15 @@
       <c r="S51" s="27"/>
       <c r="T51" s="27"/>
     </row>
-    <row r="52" spans="3:20">
-      <c r="C52" s="27" t="s">
-        <v>1813</v>
-      </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27" t="s">
-        <v>1888</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>1876</v>
-      </c>
+    <row r="52" spans="1:20">
+      <c r="A52" s="25" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="30"/>
       <c r="G52" s="27"/>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
@@ -62638,17 +63663,15 @@
       <c r="S52" s="27"/>
       <c r="T52" s="27"/>
     </row>
-    <row r="53" spans="3:20">
-      <c r="C53" s="27" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27" t="s">
-        <v>1886</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>1885</v>
-      </c>
+    <row r="53" spans="1:20">
+      <c r="A53" s="26"/>
+      <c r="B53" s="25" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="30"/>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -62664,17 +63687,13 @@
       <c r="S53" s="27"/>
       <c r="T53" s="27"/>
     </row>
-    <row r="54" spans="3:20">
-      <c r="C54" s="27" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27" t="s">
-        <v>1886</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>1885</v>
-      </c>
+    <row r="54" spans="1:20">
+      <c r="C54" s="25" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="30"/>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -62690,16 +63709,9 @@
       <c r="S54" s="27"/>
       <c r="T54" s="27"/>
     </row>
-    <row r="55" spans="3:20">
-      <c r="C55" s="27" t="s">
-        <v>1843</v>
-      </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27" t="s">
-        <v>1887</v>
-      </c>
+    <row r="55" spans="1:20">
       <c r="F55" s="27" t="s">
-        <v>1885</v>
+        <v>1597</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
@@ -62716,16 +63728,9 @@
       <c r="S55" s="27"/>
       <c r="T55" s="27"/>
     </row>
-    <row r="56" spans="3:20">
-      <c r="C56" s="27" t="s">
-        <v>1834</v>
-      </c>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27" t="s">
-        <v>1871</v>
-      </c>
+    <row r="56" spans="1:20">
       <c r="F56" s="27" t="s">
-        <v>1872</v>
+        <v>1598</v>
       </c>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
@@ -62742,16 +63747,9 @@
       <c r="S56" s="27"/>
       <c r="T56" s="27"/>
     </row>
-    <row r="57" spans="3:20">
-      <c r="C57" s="27" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27" t="s">
-        <v>1871</v>
-      </c>
+    <row r="57" spans="1:20">
       <c r="F57" s="27" t="s">
-        <v>1874</v>
+        <v>1602</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="27"/>
@@ -62768,124 +63766,47 @@
       <c r="S57" s="27"/>
       <c r="T57" s="27"/>
     </row>
-    <row r="58" spans="3:20">
-      <c r="C58" s="27" t="s">
-        <v>1836</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>1971</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>1875</v>
-      </c>
+    <row r="58" spans="1:20">
       <c r="F58" s="27" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>1960</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="I58" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>1962</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="L58" s="27" t="s">
-        <v>1963</v>
-      </c>
-      <c r="M58" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="N58" s="27" t="s">
-        <v>1963</v>
-      </c>
-      <c r="O58" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="P58" s="27" t="s">
-        <v>1965</v>
-      </c>
-      <c r="Q58" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="R58" s="27" t="s">
-        <v>683</v>
-      </c>
-      <c r="S58" s="27" t="s">
-        <v>1936</v>
-      </c>
+        <v>1601</v>
+      </c>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
       <c r="T58" s="27"/>
     </row>
-    <row r="59" spans="3:20">
-      <c r="C59" s="27" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>1972</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>1875</v>
-      </c>
+    <row r="59" spans="1:20">
       <c r="F59" s="27" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>1961</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="I59" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>1962</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="L59" s="27" t="s">
-        <v>1964</v>
-      </c>
-      <c r="M59" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="N59" s="27" t="s">
-        <v>1964</v>
-      </c>
-      <c r="O59" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="P59" s="27" t="s">
-        <v>1966</v>
-      </c>
-      <c r="Q59" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="R59" s="27" t="s">
-        <v>683</v>
-      </c>
-      <c r="S59" s="27" t="s">
-        <v>1936</v>
-      </c>
+        <v>1603</v>
+      </c>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
       <c r="T59" s="27"/>
     </row>
-    <row r="60" spans="3:20">
-      <c r="C60" s="27" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27" t="s">
-        <v>1877</v>
-      </c>
+    <row r="60" spans="1:20">
       <c r="F60" s="27" t="s">
-        <v>1880</v>
+        <v>1818</v>
       </c>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
@@ -62902,16 +63823,9 @@
       <c r="S60" s="27"/>
       <c r="T60" s="27"/>
     </row>
-    <row r="61" spans="3:20">
-      <c r="C61" s="27" t="s">
-        <v>1838</v>
-      </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27" t="s">
-        <v>1878</v>
-      </c>
+    <row r="61" spans="1:20">
       <c r="F61" s="27" t="s">
-        <v>1880</v>
+        <v>1845</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
@@ -62928,16 +63842,9 @@
       <c r="S61" s="27"/>
       <c r="T61" s="27"/>
     </row>
-    <row r="62" spans="3:20">
-      <c r="C62" s="27" t="s">
-        <v>1839</v>
-      </c>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27" t="s">
-        <v>1879</v>
-      </c>
+    <row r="62" spans="1:20">
       <c r="F62" s="27" t="s">
-        <v>1880</v>
+        <v>1604</v>
       </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
@@ -62954,16 +63861,9 @@
       <c r="S62" s="27"/>
       <c r="T62" s="27"/>
     </row>
-    <row r="63" spans="3:20">
-      <c r="C63" s="27" t="s">
-        <v>1840</v>
-      </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27" t="s">
-        <v>1881</v>
-      </c>
+    <row r="63" spans="1:20">
       <c r="F63" s="27" t="s">
-        <v>1872</v>
+        <v>1779</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
@@ -62980,200 +63880,89 @@
       <c r="S63" s="27"/>
       <c r="T63" s="27"/>
     </row>
-    <row r="64" spans="3:20">
-      <c r="C64" s="27" t="s">
-        <v>1811</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>1958</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>1882</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G64" s="27" t="s">
-        <v>1953</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>1954</v>
-      </c>
-      <c r="I64" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>1957</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="L64" s="27" t="s">
-        <v>1955</v>
-      </c>
-      <c r="M64" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="N64" s="27" t="s">
-        <v>1955</v>
-      </c>
-      <c r="O64" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="P64" s="27" t="s">
-        <v>1956</v>
-      </c>
-      <c r="Q64" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="R64" s="27" t="s">
-        <v>1954</v>
-      </c>
-      <c r="S64" s="27" t="s">
-        <v>1957</v>
-      </c>
+    <row r="64" spans="1:20">
+      <c r="F64" s="30" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="27"/>
       <c r="T64" s="27"/>
     </row>
-    <row r="65" spans="2:20">
-      <c r="C65" s="27" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>1973</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>1884</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>1880</v>
-      </c>
-      <c r="G65" s="27" t="s">
-        <v>1961</v>
-      </c>
-      <c r="H65" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="I65" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>1967</v>
-      </c>
-      <c r="K65" s="27" t="s">
-        <v>1968</v>
-      </c>
-      <c r="L65" s="27" t="s">
-        <v>1964</v>
-      </c>
-      <c r="M65" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="N65" s="27" t="s">
-        <v>1969</v>
-      </c>
-      <c r="O65" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="P65" s="27" t="s">
-        <v>1970</v>
-      </c>
-      <c r="Q65" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="R65" s="27" t="s">
-        <v>683</v>
-      </c>
-      <c r="S65" s="27" t="s">
-        <v>1936</v>
-      </c>
+    <row r="65" spans="3:20">
+      <c r="C65" s="25" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="27"/>
+      <c r="P65" s="27"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
       <c r="T65" s="27"/>
     </row>
-    <row r="66" spans="2:20">
-      <c r="C66" s="28" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>1959</v>
-      </c>
-      <c r="E66" s="28" t="s">
-        <v>1883</v>
-      </c>
-      <c r="F66" s="28" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G66" s="28" t="s">
-        <v>1897</v>
-      </c>
-      <c r="H66" s="28" t="s">
-        <v>1918</v>
-      </c>
-      <c r="I66" s="28" t="s">
-        <v>1936</v>
-      </c>
-      <c r="J66" s="28" t="s">
-        <v>1898</v>
-      </c>
-      <c r="K66" s="28" t="s">
-        <v>1918</v>
-      </c>
-      <c r="L66" s="28" t="s">
-        <v>1899</v>
-      </c>
-      <c r="M66" s="28" t="s">
-        <v>1918</v>
-      </c>
-      <c r="N66" s="28" t="s">
-        <v>1900</v>
-      </c>
-      <c r="O66" s="28" t="s">
-        <v>1918</v>
-      </c>
-      <c r="P66" s="28" t="s">
-        <v>1901</v>
-      </c>
-      <c r="Q66" s="28" t="s">
-        <v>1918</v>
-      </c>
-      <c r="R66" s="28" t="s">
-        <v>1901</v>
-      </c>
-      <c r="S66" s="28" t="s">
-        <v>1918</v>
-      </c>
-      <c r="T66" s="28"/>
-    </row>
-    <row r="67" spans="2:20">
-      <c r="B67" s="28" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28"/>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="28"/>
-      <c r="S67" s="28"/>
-      <c r="T67" s="28"/>
-    </row>
-    <row r="68" spans="2:20">
-      <c r="C68" s="27" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>1926</v>
-      </c>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
+    <row r="66" spans="3:20">
+      <c r="F66" s="27" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
+    </row>
+    <row r="67" spans="3:20">
+      <c r="F67" s="27" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="27"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
+      <c r="T67" s="27"/>
+    </row>
+    <row r="68" spans="3:20">
+      <c r="F68" s="27" t="s">
+        <v>1603</v>
+      </c>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
@@ -63189,15 +63978,10 @@
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
     </row>
-    <row r="69" spans="2:20">
-      <c r="C69" s="27" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
+    <row r="69" spans="3:20">
+      <c r="F69" s="27" t="s">
+        <v>1848</v>
+      </c>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
@@ -63213,69 +63997,29 @@
       <c r="S69" s="27"/>
       <c r="T69" s="27"/>
     </row>
-    <row r="70" spans="2:20">
-      <c r="C70" s="27" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>1929</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>1931</v>
-      </c>
+    <row r="70" spans="3:20">
       <c r="F70" s="27" t="s">
-        <v>1932</v>
-      </c>
-      <c r="G70" s="27" t="s">
-        <v>1933</v>
-      </c>
-      <c r="H70" s="27" t="s">
-        <v>1934</v>
-      </c>
-      <c r="I70" s="27" t="s">
-        <v>1935</v>
-      </c>
-      <c r="J70" s="27" t="s">
-        <v>1933</v>
-      </c>
-      <c r="K70" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="L70" s="27" t="s">
-        <v>1937</v>
-      </c>
-      <c r="M70" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="N70" s="27" t="s">
-        <v>1937</v>
-      </c>
-      <c r="O70" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="P70" s="27" t="s">
-        <v>1938</v>
-      </c>
-      <c r="Q70" s="27" t="s">
-        <v>1936</v>
-      </c>
-      <c r="R70" s="27" t="s">
-        <v>1939</v>
-      </c>
-      <c r="S70" s="27" t="s">
-        <v>1919</v>
-      </c>
+        <v>1597</v>
+      </c>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
       <c r="T70" s="27"/>
     </row>
-    <row r="71" spans="2:20">
-      <c r="C71" s="27" t="s">
-        <v>1828</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>1928</v>
-      </c>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
+    <row r="71" spans="3:20">
+      <c r="F71" s="27" t="s">
+        <v>1849</v>
+      </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
@@ -63291,16 +64035,9 @@
       <c r="S71" s="27"/>
       <c r="T71" s="27"/>
     </row>
-    <row r="72" spans="2:20">
-      <c r="C72" s="27" t="s">
-        <v>1788</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>1941</v>
-      </c>
-      <c r="E72" s="27"/>
+    <row r="72" spans="3:20">
       <c r="F72" s="27" t="s">
-        <v>1874</v>
+        <v>1850</v>
       </c>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
@@ -63317,16 +64054,9 @@
       <c r="S72" s="27"/>
       <c r="T72" s="27"/>
     </row>
-    <row r="73" spans="2:20">
-      <c r="C73" s="27" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>1942</v>
-      </c>
-      <c r="E73" s="27"/>
+    <row r="73" spans="3:20">
       <c r="F73" s="27" t="s">
-        <v>1874</v>
+        <v>1851</v>
       </c>
       <c r="G73" s="27"/>
       <c r="H73" s="27"/>
@@ -63343,16 +64073,9 @@
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
     </row>
-    <row r="74" spans="2:20">
-      <c r="C74" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>1943</v>
-      </c>
-      <c r="E74" s="27"/>
+    <row r="74" spans="3:20">
       <c r="F74" s="27" t="s">
-        <v>1874</v>
+        <v>1852</v>
       </c>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
@@ -63369,16 +64092,9 @@
       <c r="S74" s="27"/>
       <c r="T74" s="27"/>
     </row>
-    <row r="75" spans="2:20">
-      <c r="C75" s="27" t="s">
-        <v>1816</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>1944</v>
-      </c>
-      <c r="E75" s="27"/>
+    <row r="75" spans="3:20">
       <c r="F75" s="27" t="s">
-        <v>1874</v>
+        <v>1853</v>
       </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
@@ -63395,134 +64111,108 @@
       <c r="S75" s="27"/>
       <c r="T75" s="27"/>
     </row>
-    <row r="76" spans="2:20">
-      <c r="C76" s="28" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>1945</v>
-      </c>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="28"/>
-      <c r="R76" s="28"/>
-      <c r="S76" s="28"/>
-      <c r="T76" s="28"/>
-    </row>
-    <row r="77" spans="2:20">
-      <c r="C77" s="28" t="s">
-        <v>1889</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>1974</v>
-      </c>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
-      <c r="Q77" s="28"/>
-      <c r="R77" s="28"/>
-      <c r="S77" s="28"/>
-      <c r="T77" s="28"/>
-    </row>
-    <row r="78" spans="2:20">
-      <c r="C78" s="28" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>1975</v>
-      </c>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="28"/>
-      <c r="R78" s="28"/>
-      <c r="S78" s="28"/>
-      <c r="T78" s="28"/>
-    </row>
-    <row r="79" spans="2:20">
-      <c r="C79" s="28" t="s">
+    <row r="76" spans="3:20">
+      <c r="F76" s="27" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="27"/>
+    </row>
+    <row r="77" spans="3:20">
+      <c r="F77" s="27" t="s">
+        <v>1845</v>
+      </c>
+      <c r="G77" s="27"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
+      <c r="T77" s="27"/>
+    </row>
+    <row r="78" spans="3:20">
+      <c r="F78" s="27" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="27"/>
+    </row>
+    <row r="79" spans="3:20">
+      <c r="F79" s="27" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="27"/>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="27"/>
+      <c r="S79" s="27"/>
+      <c r="T79" s="27"/>
+    </row>
+    <row r="80" spans="3:20">
+      <c r="F80" s="27" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
+    </row>
+    <row r="81" spans="2:20">
+      <c r="C81" s="25" t="s">
         <v>1891</v>
       </c>
-      <c r="D79" s="28" t="s">
-        <v>1976</v>
-      </c>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="28"/>
-      <c r="Q79" s="28"/>
-      <c r="R79" s="28"/>
-      <c r="S79" s="28"/>
-      <c r="T79" s="28"/>
-    </row>
-    <row r="80" spans="2:20">
-      <c r="B80" s="28" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="28"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="28"/>
-      <c r="S80" s="28"/>
-      <c r="T80" s="28"/>
-    </row>
-    <row r="81" spans="2:20">
-      <c r="C81" s="27" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="30"/>
       <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
@@ -63539,14 +64229,9 @@
       <c r="T81" s="27"/>
     </row>
     <row r="82" spans="2:20">
-      <c r="C82" s="27" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>1926</v>
-      </c>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
+      <c r="F82" s="27" t="s">
+        <v>1600</v>
+      </c>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
@@ -63563,14 +64248,9 @@
       <c r="T82" s="27"/>
     </row>
     <row r="83" spans="2:20">
-      <c r="C83" s="27" t="s">
-        <v>1822</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>1946</v>
-      </c>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
+      <c r="F83" s="27" t="s">
+        <v>1606</v>
+      </c>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
@@ -63587,14 +64267,9 @@
       <c r="T83" s="27"/>
     </row>
     <row r="84" spans="2:20">
-      <c r="C84" s="27" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D84" s="27" t="s">
-        <v>1947</v>
-      </c>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
+      <c r="F84" s="27" t="s">
+        <v>1856</v>
+      </c>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
@@ -63611,14 +64286,9 @@
       <c r="T84" s="27"/>
     </row>
     <row r="85" spans="2:20">
-      <c r="C85" s="27" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>1948</v>
-      </c>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
+      <c r="F85" s="27" t="s">
+        <v>1857</v>
+      </c>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
@@ -63635,14 +64305,9 @@
       <c r="T85" s="27"/>
     </row>
     <row r="86" spans="2:20">
-      <c r="C86" s="27" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>1949</v>
-      </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
+      <c r="F86" s="27" t="s">
+        <v>1288</v>
+      </c>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
@@ -63659,14 +64324,9 @@
       <c r="T86" s="27"/>
     </row>
     <row r="87" spans="2:20">
-      <c r="C87" s="27" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
+      <c r="F87" s="27" t="s">
+        <v>1858</v>
+      </c>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
@@ -63683,14 +64343,9 @@
       <c r="T87" s="27"/>
     </row>
     <row r="88" spans="2:20">
-      <c r="C88" s="27" t="s">
-        <v>1826</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>1951</v>
-      </c>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
+      <c r="F88" s="27" t="s">
+        <v>1108</v>
+      </c>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
@@ -63707,14 +64362,9 @@
       <c r="T88" s="27"/>
     </row>
     <row r="89" spans="2:20">
-      <c r="C89" s="27" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>1952</v>
-      </c>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
+      <c r="F89" s="30" t="s">
+        <v>1845</v>
+      </c>
       <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
@@ -63731,59 +64381,54 @@
       <c r="T89" s="27"/>
     </row>
     <row r="90" spans="2:20">
-      <c r="C90" s="28" t="s">
-        <v>1828</v>
-      </c>
-      <c r="D90" s="28" t="s">
-        <v>1928</v>
-      </c>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="28"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="28"/>
-      <c r="O90" s="28"/>
-      <c r="P90" s="28"/>
-      <c r="Q90" s="28"/>
-      <c r="R90" s="28"/>
-      <c r="S90" s="28"/>
-      <c r="T90" s="28"/>
+      <c r="C90" s="25" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="27"/>
+      <c r="R90" s="27"/>
+      <c r="S90" s="27"/>
+      <c r="T90" s="27"/>
     </row>
     <row r="91" spans="2:20">
-      <c r="B91" s="28" t="s">
-        <v>1865</v>
-      </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="28"/>
-      <c r="O91" s="28"/>
-      <c r="P91" s="28"/>
-      <c r="Q91" s="28"/>
-      <c r="R91" s="28"/>
-      <c r="S91" s="28"/>
-      <c r="T91" s="28"/>
+      <c r="F91" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="27"/>
+      <c r="Q91" s="27"/>
+      <c r="R91" s="27"/>
+      <c r="S91" s="27"/>
+      <c r="T91" s="27"/>
     </row>
     <row r="92" spans="2:20">
-      <c r="C92" s="27" t="s">
-        <v>1813</v>
-      </c>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="27" t="s">
+        <v>1860</v>
+      </c>
       <c r="G92" s="27"/>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
@@ -63799,57 +64444,10 @@
       <c r="S92" s="27"/>
       <c r="T92" s="27"/>
     </row>
-    <row r="93" spans="2:20">
-      <c r="C93" s="27" t="s">
-        <v>1866</v>
-      </c>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="27"/>
-      <c r="P93" s="27"/>
-      <c r="Q93" s="27"/>
-      <c r="R93" s="27"/>
-      <c r="S93" s="27"/>
-      <c r="T93" s="27"/>
-    </row>
-    <row r="94" spans="2:20">
-      <c r="C94" s="28" t="s">
-        <v>1867</v>
-      </c>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="28"/>
-      <c r="M94" s="28"/>
-      <c r="N94" s="28"/>
-      <c r="O94" s="28"/>
-      <c r="P94" s="28"/>
-      <c r="Q94" s="28"/>
-      <c r="R94" s="28"/>
-      <c r="S94" s="28"/>
-      <c r="T94" s="28"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="42" max="16383" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
 
@@ -63880,7 +64478,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -63890,17 +64488,17 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="9" spans="1:1">

--- a/EARCT-rsch2-beta.xlsx
+++ b/EARCT-rsch2-beta.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="0" windowWidth="20925" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="15750" yWindow="0" windowWidth="20925" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="40" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12812" uniqueCount="1980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12930" uniqueCount="2075">
   <si>
     <t>分類1</t>
     <rPh sb="0" eb="2">
@@ -6917,6 +6917,377 @@
     <rPh sb="4" eb="6">
       <t>ドウシ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mas-e</t>
+  </si>
+  <si>
+    <t>mss</t>
+  </si>
+  <si>
+    <t>msn</t>
+  </si>
+  <si>
+    <t>mas-i</t>
+  </si>
+  <si>
+    <t>mx</t>
+  </si>
+  <si>
+    <t>mxv</t>
+  </si>
+  <si>
+    <t>mxt</t>
+  </si>
+  <si>
+    <t>mxd</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>でしょう</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>でした</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>でして</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>です</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>でし</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>des-i</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>des-jo+u</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mas-jo-u</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mas-i-ta</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mas-i-te</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mas-u</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>mas-e-n</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>des-i-ta</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>des-i-te</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>des-u</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ds</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dxv</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dxt</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>dxd</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ます</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ある</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>あら</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>あろ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>り</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>っ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>る</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>れ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>あろう</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>あり</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>あった</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>あって</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>あれ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>あれば</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ar-ou</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ar-i</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ar-u</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a(r)-tta</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a(r)-tte</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ar-e</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ar-e-ba</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rr</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rl</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rlb</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rrv</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>r't</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>r'd</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>あらば</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ar-a-ba</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rrb</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>rj</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いる</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>なる</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>できる</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>い</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いれ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いろ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いよ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いない</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いよう</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いた</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いて</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いれば</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wi-na-i</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wi-you</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wi-ta</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wi-te</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wi-ru</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wi-re</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wi-re-ba</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wi-ro</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wjn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wjv</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wjt</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wjd</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wjr</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wjl</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wjlb</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wjrr</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wjnf</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いな</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wi-na</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いなく</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wi-na-k-u</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>wjnq</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -7540,9 +7911,9 @@
   <dimension ref="A1:O924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A878" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J586" sqref="J586"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C886" sqref="C886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -62123,11 +62494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="N16" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="O19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -62955,20 +63326,48 @@
         <v>1925</v>
       </c>
       <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
+      <c r="F25" s="27" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>2011</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>2012</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>2013</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>2014</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>2015</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>2016</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>2013</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>2016</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>2013</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>2017</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>2013</v>
+      </c>
+      <c r="R25" s="27" t="s">
+        <v>2017</v>
+      </c>
+      <c r="S25" s="27" t="s">
+        <v>2013</v>
+      </c>
       <c r="T25" s="27" t="s">
         <v>1978</v>
       </c>
@@ -62982,19 +63381,45 @@
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
+      <c r="G26" s="27" t="s">
+        <v>2044</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>2013</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>2013</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>2044</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>2013</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>2041</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>2013</v>
+      </c>
+      <c r="N26" s="27" t="s">
+        <v>2041</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>2013</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>2045</v>
+      </c>
+      <c r="Q26" s="27" t="s">
+        <v>2013</v>
+      </c>
+      <c r="R26" s="27" t="s">
+        <v>2046</v>
+      </c>
+      <c r="S26" s="27" t="s">
+        <v>2047</v>
+      </c>
       <c r="T26" s="27" t="s">
         <v>1978</v>
       </c>
@@ -64453,57 +64878,395 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>914</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>916</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>631</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>766</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>626</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2057</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="40" spans="1:5">
+      <c r="B40" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="41" spans="1:5">
+      <c r="B41" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="42" spans="1:5">
+      <c r="B42" t="s">
         <v>1895</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>1185</v>
       </c>
     </row>
   </sheetData>
